--- a/数据/shopee_products.xlsx
+++ b/数据/shopee_products.xlsx
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>

--- a/数据/shopee_products.xlsx
+++ b/数据/shopee_products.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,42 +495,54 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>合集 - HDS315-316</t>
+          <t>合集-HDS315-316</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>合集 - HDS315-316</t>
+          <t>合集-HDS315-316</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS315-316\HDS315-316-1.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\1.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS315-316\HDS315-316-2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\19.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS315-316\HDS315-316-3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\2.jpg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS315-316\HDS315-316-5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\20.jpg</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS315-316\HDS315-316-6.jpg</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\3.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\4.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\5.jpg</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\6.jpg</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
@@ -540,154 +552,52 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>合集 - HDS317-318</t>
+          <t>合集-HDS317-318</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>合集 - HDS317-318</t>
+          <t>合集-HDS317-318</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS317-318\HDS318-2.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\1.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS317-318\HDS318-3.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\2.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS317-318\HDS318-4.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\3.jpg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS317-318\HDS318-5.jpg</t>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\4.jpg</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格1\合集 - HDS317-318\HDS318-6.jpg</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\5.jpg</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\6.jpg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\7.jpg</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10003</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>合集-HDS315-316</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>合集-HDS315-316</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\1.jpg</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\19.jpg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\2.jpg</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\20.jpg</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\3.jpg</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\4.jpg</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\5.jpg</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS315-316\6.jpg</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10004</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>合集-HDS317-318</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>合集-HDS317-318</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\1.jpg</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\2.jpg</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\3.jpg</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\4.jpg</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\5.jpg</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\6.jpg</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>\\Desktop-inv4qoc\图片数据\整理图库\黑胆石-整条\风格2\合集-HDS317-318\7.jpg</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -737,7 +647,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -762,7 +672,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -787,7 +697,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -812,7 +722,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -837,7 +747,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -862,7 +772,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -887,7 +797,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -912,7 +822,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -937,7 +847,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,7 +872,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -987,7 +897,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1012,7 +922,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1037,7 +947,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1062,7 +972,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1087,7 +997,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1112,7 +1022,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1137,7 +1047,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1162,7 +1072,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1187,7 +1097,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1212,7 +1122,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1237,7 +1147,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1262,7 +1172,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1287,7 +1197,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1312,7 +1222,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1337,7 +1247,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1362,7 +1272,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1387,7 +1297,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1412,7 +1322,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1437,7 +1347,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1462,7 +1372,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1487,7 +1397,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1512,7 +1422,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1537,7 +1447,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1562,7 +1472,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1587,7 +1497,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1612,7 +1522,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1637,7 +1547,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1662,7 +1572,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1687,7 +1597,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1712,7 +1622,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
